--- a/prelim_results/summary_stats.xlsx
+++ b/prelim_results/summary_stats.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="214">
   <si>
     <t>Assembly</t>
   </si>
@@ -632,15 +632,6 @@
     <t>M36606</t>
   </si>
   <si>
-    <t>Meta</t>
-  </si>
-  <si>
-    <t>Spades</t>
-  </si>
-  <si>
-    <t>Abyss</t>
-  </si>
-  <si>
     <t>Velvet</t>
   </si>
   <si>
@@ -669,6 +660,15 @@
   </si>
   <si>
     <t>Score</t>
+  </si>
+  <si>
+    <t>Metassembler</t>
+  </si>
+  <si>
+    <t>SPAdes</t>
+  </si>
+  <si>
+    <t>ABySS</t>
   </si>
 </sst>
 </file>
@@ -1380,7 +1380,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Meta</c:v>
+                  <c:v>Metassembler</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1639,7 +1639,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Spades</c:v>
+                  <c:v>SPAdes</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1770,7 +1770,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>2.516922097039828</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.05661198488279</c:v>
@@ -1891,7 +1891,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Abyss</c:v>
+                  <c:v>ABySS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2406,11 +2406,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2138156768"/>
-        <c:axId val="-2138119040"/>
+        <c:axId val="2126543776"/>
+        <c:axId val="2127929888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2138156768"/>
+        <c:axId val="2126543776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2420,7 +2420,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138119040"/>
+        <c:crossAx val="2127929888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2428,7 +2428,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2138119040"/>
+        <c:axId val="2127929888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2439,7 +2439,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138156768"/>
+        <c:crossAx val="2126543776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2514,7 +2514,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Meta</c:v>
+                  <c:v>Metassembler</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2773,7 +2773,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Spades</c:v>
+                  <c:v>SPAdes</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3025,7 +3025,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Abyss</c:v>
+                  <c:v>ABySS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3540,11 +3540,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2099447808"/>
-        <c:axId val="-2098312720"/>
+        <c:axId val="2126521600"/>
+        <c:axId val="2126518432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2099447808"/>
+        <c:axId val="2126521600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3554,7 +3554,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2098312720"/>
+        <c:crossAx val="2126518432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3562,7 +3562,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2098312720"/>
+        <c:axId val="2126518432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3573,7 +3573,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2099447808"/>
+        <c:crossAx val="2126521600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16202,8 +16202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AK159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="U44" sqref="U44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16315,12 +16315,12 @@
         <v>200</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="B3">
         <v>4.5602049238149709</v>
@@ -16433,10 +16433,10 @@
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B4">
-        <v>2.5169220970398278</v>
+        <v>212</v>
+      </c>
+      <c r="B4" t="s">
+        <v>213</v>
       </c>
       <c r="C4">
         <v>2.0566119848827902</v>
@@ -16546,7 +16546,7 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="B5">
         <v>4.5285752985395558</v>
@@ -16659,7 +16659,7 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B6">
         <v>3.5704106894712209</v>
@@ -16877,12 +16877,12 @@
         <v>200</v>
       </c>
       <c r="AK8" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="B9">
         <v>10.208142605239807</v>
@@ -16995,7 +16995,7 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B10">
         <v>9.1049805682822598</v>
@@ -17108,7 +17108,7 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="B11">
         <v>10.499750144695106</v>
@@ -17221,7 +17221,7 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B12">
         <v>9.9782470078902303</v>
@@ -17334,7 +17334,7 @@
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.2">
@@ -19920,16 +19920,16 @@
         <v>5.48</v>
       </c>
       <c r="T1" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="W1" s="5" t="s">
         <v>207</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>210</v>
       </c>
       <c r="X1" s="5" t="s">
         <v>161</v>
@@ -19938,10 +19938,10 @@
         <v>163</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.25">
@@ -22781,7 +22781,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="U37" s="7">
         <v>100.89016555400654</v>

--- a/prelim_results/summary_stats.xlsx
+++ b/prelim_results/summary_stats.xlsx
@@ -1339,21 +1339,28 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="1"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0"/>
@@ -1364,12 +1371,37 @@
       </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1386,15 +1418,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'score plots'!$B$2:$AK$2</c:f>
@@ -1628,263 +1660,10 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'score plots'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SPAdes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'score plots'!$B$2:$AK$2</c:f>
-              <c:strCache>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>M05964</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>M07572</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>M10540</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>M16180</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>M26026</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>M26032</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>M27986</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>M27987</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>M28356</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>M28405</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>M28687</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>M28702</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>M28745</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>M28770</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>M28801</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>M28853</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>M28888</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>M29179</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>M29197</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>M29202</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>M29227</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>M29307</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>M29323</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>M29331</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>M29400</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>M29658</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>M29684</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>M29695</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>M29697</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>M36557</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>M36564</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>M36580</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>M36582</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>M36605</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>M36606</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>M37982</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'score plots'!$B$4:$AK$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.05661198488279</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.840822252376486</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.67794291693401</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.867827150671271</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.18580866680459</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.075327289993257</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.889353214363893</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.923581670663164</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.54287528868442</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.840236565472189</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.230105174961993</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.255109470325407</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.663484304781248</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.649165123777619</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.320402180951771</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.146356339935678</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.242040537946765</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.722696064221506</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.44610002145936</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.424549291151602</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.674080368457981</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.710980485268073</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.650590379516077</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.695109889674635</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.953756744115955</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4.278176549493327</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.529872931536401</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.05256547235284</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.110418891146172</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.954077694656749</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.910150915054812</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.808489393166015</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.104669397665173</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.271454893511381</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.953717672596417</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'score plots'!$A$5</c:f>
@@ -1897,19 +1676,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
             <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                  <a:alpha val="63000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'score plots'!$B$2:$AK$2</c:f>
@@ -2143,11 +1918,10 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>'score plots'!$A$6</c:f>
@@ -2159,9 +1933,16 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'score plots'!$B$2:$AK$2</c:f>
@@ -2395,7 +2176,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2405,22 +2185,54 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="2126543776"/>
-        <c:axId val="2127929888"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2129249328"/>
+        <c:axId val="-2129252688"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="2126543776"/>
+        <c:axId val="-2129249328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127929888"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="105000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2129252688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2428,36 +2240,138 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2127929888"/>
+        <c:axId val="-2129252688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:tint val="75000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126543776"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="105000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2129249328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:tint val="75000"/>
+          <a:shade val="95000"/>
+          <a:satMod val="105000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -2473,21 +2387,28 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="1"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0"/>
@@ -2498,12 +2419,37 @@
       </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2520,15 +2466,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'score plots'!$B$8:$AK$8</c:f>
@@ -2762,263 +2708,10 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'score plots'!$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SPAdes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'score plots'!$B$8:$AK$8</c:f>
-              <c:strCache>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>M05964</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>M07572</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>M10540</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>M16180</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>M26026</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>M26032</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>M27986</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>M27987</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>M28356</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>M28405</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>M28687</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>M28702</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>M28745</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>M28770</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>M28801</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>M28853</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>M28888</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>M29179</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>M29197</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>M29202</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>M29227</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>M29307</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>M29323</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>M29331</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>M29400</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>M29658</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>M29684</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>M29695</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>M29697</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>M36557</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>M36564</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>M36580</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>M36582</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>M36605</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>M36606</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>Score</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'score plots'!$B$10:$AK$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>9.10498056828226</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.93348265077278</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.782709760978262</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.87609655062103</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.852341059256834</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10.47681002798123</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.12409116609385</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.993033083454795</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.41448781530303</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.81813382695331</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.95688853839464</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.552464373429655</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.13503660277564</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.747802058456736</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10.1500088753377</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9.758905342029431</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9.74248071803874</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10.10582224327318</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8.856400213316557</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8.690846201842083</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8.698845074835734</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9.82584772568286</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>11.1053675817834</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9.714473885959887</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>10.02388270230337</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>10.1340510737686</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>10.2750844134717</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9.732448017275377</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>10.27042056346032</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>10.01192402497565</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>10.10566752682227</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>9.112567590654368</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>9.347637195827472</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>9.60080838275986</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>7.738244582607907</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>10.20899831472631</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'score plots'!$A$11</c:f>
@@ -3031,19 +2724,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
             <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                  <a:alpha val="63000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'score plots'!$B$8:$AK$8</c:f>
@@ -3277,11 +2966,10 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>'score plots'!$A$12</c:f>
@@ -3293,9 +2981,16 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'score plots'!$B$8:$AK$8</c:f>
@@ -3529,7 +3224,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3539,22 +3233,54 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="2126521600"/>
-        <c:axId val="2126518432"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2121576480"/>
+        <c:axId val="-2121671280"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="2126521600"/>
+        <c:axId val="-2121576480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126518432"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="105000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2121671280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3562,36 +3288,138 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126518432"/>
+        <c:axId val="-2121671280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:tint val="75000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126521600"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="105000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2121576480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:tint val="75000"/>
+          <a:shade val="95000"/>
+          <a:satMod val="105000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -3600,20 +3428,980 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="101">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:lineWidthScale>3</cs:lineWidthScale>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="85000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="25000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="101">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:lineWidthScale>3</cs:lineWidthScale>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="85000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="25000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:rowOff>106362</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>515937</xdr:colOff>
+      <xdr:colOff>477837</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16202,8 +16990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AK159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A12"/>
+    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/prelim_results/summary_stats.xlsx
+++ b/prelim_results/summary_stats.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="3580" windowWidth="35640" windowHeight="20120" activeTab="1"/>
+    <workbookView xWindow="10200" yWindow="2080" windowWidth="35640" windowHeight="20120" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="reports3" sheetId="1" r:id="rId1"/>
     <sheet name="score plots" sheetId="4" r:id="rId2"/>
-    <sheet name="Score raw data" sheetId="5" r:id="rId3"/>
-    <sheet name="table data" sheetId="6" r:id="rId4"/>
+    <sheet name="discovar" sheetId="7" r:id="rId3"/>
+    <sheet name="Score raw data" sheetId="5" r:id="rId4"/>
+    <sheet name="table data" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="250">
   <si>
     <t>Assembly</t>
   </si>
@@ -669,6 +670,114 @@
   </si>
   <si>
     <t>ABySS</t>
+  </si>
+  <si>
+    <t>M05964_discovar</t>
+  </si>
+  <si>
+    <t>M07572_discovar</t>
+  </si>
+  <si>
+    <t>M10540_discovar</t>
+  </si>
+  <si>
+    <t>M16180_discovar</t>
+  </si>
+  <si>
+    <t>M26026_discovar</t>
+  </si>
+  <si>
+    <t>M26032_discovar</t>
+  </si>
+  <si>
+    <t>M27986_discovar</t>
+  </si>
+  <si>
+    <t>M27987_discovar</t>
+  </si>
+  <si>
+    <t>M28356_discovar</t>
+  </si>
+  <si>
+    <t>M28405_discovar</t>
+  </si>
+  <si>
+    <t>M28687_discovar</t>
+  </si>
+  <si>
+    <t>M28702_discovar</t>
+  </si>
+  <si>
+    <t>M28745_discovar</t>
+  </si>
+  <si>
+    <t>M28770_discovar</t>
+  </si>
+  <si>
+    <t>M28801_discovar</t>
+  </si>
+  <si>
+    <t>M28853_discovar</t>
+  </si>
+  <si>
+    <t>M28888_discovar</t>
+  </si>
+  <si>
+    <t>M29179_discovar</t>
+  </si>
+  <si>
+    <t>M29197_discovar</t>
+  </si>
+  <si>
+    <t>M29202_discovar</t>
+  </si>
+  <si>
+    <t>M29227_discovar</t>
+  </si>
+  <si>
+    <t>M29307_discovar</t>
+  </si>
+  <si>
+    <t>M29323_discovar</t>
+  </si>
+  <si>
+    <t>M29331_discovar</t>
+  </si>
+  <si>
+    <t>M29400_discovar</t>
+  </si>
+  <si>
+    <t>M29658_discovar</t>
+  </si>
+  <si>
+    <t>M29684_discovar</t>
+  </si>
+  <si>
+    <t>M29695_discovar</t>
+  </si>
+  <si>
+    <t>M29697_discovar</t>
+  </si>
+  <si>
+    <t>M36557_discovar</t>
+  </si>
+  <si>
+    <t>M36564_discovar</t>
+  </si>
+  <si>
+    <t>M36580_discovar</t>
+  </si>
+  <si>
+    <t>M36582_discovar</t>
+  </si>
+  <si>
+    <t>M36605_discovar</t>
+  </si>
+  <si>
+    <t>M36606_discovar</t>
+  </si>
+  <si>
+    <t>M37982_discovar</t>
   </si>
 </sst>
 </file>
@@ -2186,11 +2295,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2129249328"/>
-        <c:axId val="-2129252688"/>
+        <c:axId val="-2059002112"/>
+        <c:axId val="-2063047152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2129249328"/>
+        <c:axId val="-2059002112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2232,7 +2341,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2129252688"/>
+        <c:crossAx val="-2063047152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2240,7 +2349,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2129252688"/>
+        <c:axId val="-2063047152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2298,7 +2407,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2129249328"/>
+        <c:crossAx val="-2059002112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3234,11 +3343,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2121576480"/>
-        <c:axId val="-2121671280"/>
+        <c:axId val="-2045431504"/>
+        <c:axId val="-2058450240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2121576480"/>
+        <c:axId val="-2045431504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3280,7 +3389,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2121671280"/>
+        <c:crossAx val="-2058450240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3288,7 +3397,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2121671280"/>
+        <c:axId val="-2058450240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3346,7 +3455,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2121576480"/>
+        <c:crossAx val="-2045431504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4896,7 +5005,7 @@
   <dimension ref="A1:EO27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14663,11 +14772,11 @@
     </row>
     <row r="23" spans="1:145" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
-        <f t="shared" ref="B23:AG23" si="0">((LOG((B18/B14),10)/((B16/1890027)^2)))</f>
+        <f>((LOG((B18/B14),10)/((B16/1890027)^2)))</f>
         <v>4.5602049238149709</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B23:AG23" si="0">((LOG((C18/C14),10)/((C16/1890027)^2)))</f>
         <v>2.5169220970398278</v>
       </c>
       <c r="D23">
@@ -16990,7 +17099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AK159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="C8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
@@ -19392,6 +19501,4787 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:EO26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I1" t="s">
+        <v>221</v>
+      </c>
+      <c r="J1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M1" t="s">
+        <v>225</v>
+      </c>
+      <c r="N1" t="s">
+        <v>226</v>
+      </c>
+      <c r="O1" t="s">
+        <v>227</v>
+      </c>
+      <c r="P1" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>229</v>
+      </c>
+      <c r="R1" t="s">
+        <v>230</v>
+      </c>
+      <c r="S1" t="s">
+        <v>231</v>
+      </c>
+      <c r="T1" t="s">
+        <v>232</v>
+      </c>
+      <c r="U1" t="s">
+        <v>233</v>
+      </c>
+      <c r="V1" t="s">
+        <v>234</v>
+      </c>
+      <c r="W1" t="s">
+        <v>235</v>
+      </c>
+      <c r="X1" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2">
+        <v>222</v>
+      </c>
+      <c r="C2">
+        <v>304</v>
+      </c>
+      <c r="D2">
+        <v>179</v>
+      </c>
+      <c r="E2">
+        <v>1084</v>
+      </c>
+      <c r="F2">
+        <v>167</v>
+      </c>
+      <c r="G2">
+        <v>188</v>
+      </c>
+      <c r="H2">
+        <v>162</v>
+      </c>
+      <c r="I2">
+        <v>183</v>
+      </c>
+      <c r="J2">
+        <v>292</v>
+      </c>
+      <c r="K2">
+        <v>250</v>
+      </c>
+      <c r="L2">
+        <v>229</v>
+      </c>
+      <c r="M2">
+        <v>209</v>
+      </c>
+      <c r="N2">
+        <v>195</v>
+      </c>
+      <c r="O2">
+        <v>168</v>
+      </c>
+      <c r="P2">
+        <v>184</v>
+      </c>
+      <c r="Q2">
+        <v>208</v>
+      </c>
+      <c r="R2">
+        <v>270</v>
+      </c>
+      <c r="S2">
+        <v>200</v>
+      </c>
+      <c r="T2">
+        <v>2756</v>
+      </c>
+      <c r="U2">
+        <v>2038</v>
+      </c>
+      <c r="V2">
+        <v>2434</v>
+      </c>
+      <c r="W2">
+        <v>254</v>
+      </c>
+      <c r="X2">
+        <v>216</v>
+      </c>
+      <c r="Y2">
+        <v>149</v>
+      </c>
+      <c r="Z2">
+        <v>235</v>
+      </c>
+      <c r="AA2">
+        <v>184</v>
+      </c>
+      <c r="AB2">
+        <v>227</v>
+      </c>
+      <c r="AC2">
+        <v>284</v>
+      </c>
+      <c r="AD2">
+        <v>208</v>
+      </c>
+      <c r="AE2">
+        <v>181</v>
+      </c>
+      <c r="AF2">
+        <v>194</v>
+      </c>
+      <c r="AG2">
+        <v>242</v>
+      </c>
+      <c r="AH2">
+        <v>183</v>
+      </c>
+      <c r="AI2">
+        <v>157</v>
+      </c>
+      <c r="AJ2">
+        <v>2589</v>
+      </c>
+      <c r="AK2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>102</v>
+      </c>
+      <c r="D3">
+        <v>66</v>
+      </c>
+      <c r="E3">
+        <v>360</v>
+      </c>
+      <c r="F3">
+        <v>54</v>
+      </c>
+      <c r="G3">
+        <v>54</v>
+      </c>
+      <c r="H3">
+        <v>72</v>
+      </c>
+      <c r="I3">
+        <v>80</v>
+      </c>
+      <c r="J3">
+        <v>48</v>
+      </c>
+      <c r="K3">
+        <v>72</v>
+      </c>
+      <c r="L3">
+        <v>60</v>
+      </c>
+      <c r="M3">
+        <v>72</v>
+      </c>
+      <c r="N3">
+        <v>64</v>
+      </c>
+      <c r="O3">
+        <v>70</v>
+      </c>
+      <c r="P3">
+        <v>68</v>
+      </c>
+      <c r="Q3">
+        <v>78</v>
+      </c>
+      <c r="R3">
+        <v>80</v>
+      </c>
+      <c r="S3">
+        <v>52</v>
+      </c>
+      <c r="T3">
+        <v>1130</v>
+      </c>
+      <c r="U3">
+        <v>796</v>
+      </c>
+      <c r="V3">
+        <v>990</v>
+      </c>
+      <c r="W3">
+        <v>70</v>
+      </c>
+      <c r="X3">
+        <v>62</v>
+      </c>
+      <c r="Y3">
+        <v>52</v>
+      </c>
+      <c r="Z3">
+        <v>66</v>
+      </c>
+      <c r="AA3">
+        <v>60</v>
+      </c>
+      <c r="AB3">
+        <v>66</v>
+      </c>
+      <c r="AC3">
+        <v>62</v>
+      </c>
+      <c r="AD3">
+        <v>56</v>
+      </c>
+      <c r="AE3">
+        <v>48</v>
+      </c>
+      <c r="AF3">
+        <v>54</v>
+      </c>
+      <c r="AG3">
+        <v>76</v>
+      </c>
+      <c r="AH3">
+        <v>58</v>
+      </c>
+      <c r="AI3">
+        <v>64</v>
+      </c>
+      <c r="AJ3">
+        <v>1314</v>
+      </c>
+      <c r="AK3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4">
+        <v>36</v>
+      </c>
+      <c r="C4">
+        <v>74</v>
+      </c>
+      <c r="D4">
+        <v>54</v>
+      </c>
+      <c r="E4">
+        <v>166</v>
+      </c>
+      <c r="F4">
+        <v>44</v>
+      </c>
+      <c r="G4">
+        <v>44</v>
+      </c>
+      <c r="H4">
+        <v>46</v>
+      </c>
+      <c r="I4">
+        <v>54</v>
+      </c>
+      <c r="J4">
+        <v>44</v>
+      </c>
+      <c r="K4">
+        <v>50</v>
+      </c>
+      <c r="L4">
+        <v>42</v>
+      </c>
+      <c r="M4">
+        <v>60</v>
+      </c>
+      <c r="N4">
+        <v>48</v>
+      </c>
+      <c r="O4">
+        <v>50</v>
+      </c>
+      <c r="P4">
+        <v>52</v>
+      </c>
+      <c r="Q4">
+        <v>60</v>
+      </c>
+      <c r="R4">
+        <v>64</v>
+      </c>
+      <c r="S4">
+        <v>38</v>
+      </c>
+      <c r="T4">
+        <v>232</v>
+      </c>
+      <c r="U4">
+        <v>238</v>
+      </c>
+      <c r="V4">
+        <v>252</v>
+      </c>
+      <c r="W4">
+        <v>60</v>
+      </c>
+      <c r="X4">
+        <v>52</v>
+      </c>
+      <c r="Y4">
+        <v>36</v>
+      </c>
+      <c r="Z4">
+        <v>52</v>
+      </c>
+      <c r="AA4">
+        <v>48</v>
+      </c>
+      <c r="AB4">
+        <v>50</v>
+      </c>
+      <c r="AC4">
+        <v>58</v>
+      </c>
+      <c r="AD4">
+        <v>48</v>
+      </c>
+      <c r="AE4">
+        <v>32</v>
+      </c>
+      <c r="AF4">
+        <v>44</v>
+      </c>
+      <c r="AG4">
+        <v>48</v>
+      </c>
+      <c r="AH4">
+        <v>38</v>
+      </c>
+      <c r="AI4">
+        <v>52</v>
+      </c>
+      <c r="AJ4">
+        <v>136</v>
+      </c>
+      <c r="AK4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>58</v>
+      </c>
+      <c r="D5">
+        <v>48</v>
+      </c>
+      <c r="E5">
+        <v>122</v>
+      </c>
+      <c r="F5">
+        <v>40</v>
+      </c>
+      <c r="G5">
+        <v>44</v>
+      </c>
+      <c r="H5">
+        <v>42</v>
+      </c>
+      <c r="I5">
+        <v>48</v>
+      </c>
+      <c r="J5">
+        <v>38</v>
+      </c>
+      <c r="K5">
+        <v>44</v>
+      </c>
+      <c r="L5">
+        <v>42</v>
+      </c>
+      <c r="M5">
+        <v>50</v>
+      </c>
+      <c r="N5">
+        <v>44</v>
+      </c>
+      <c r="O5">
+        <v>46</v>
+      </c>
+      <c r="P5">
+        <v>38</v>
+      </c>
+      <c r="Q5">
+        <v>54</v>
+      </c>
+      <c r="R5">
+        <v>54</v>
+      </c>
+      <c r="S5">
+        <v>38</v>
+      </c>
+      <c r="T5">
+        <v>96</v>
+      </c>
+      <c r="U5">
+        <v>112</v>
+      </c>
+      <c r="V5">
+        <v>98</v>
+      </c>
+      <c r="W5">
+        <v>60</v>
+      </c>
+      <c r="X5">
+        <v>50</v>
+      </c>
+      <c r="Y5">
+        <v>36</v>
+      </c>
+      <c r="Z5">
+        <v>46</v>
+      </c>
+      <c r="AA5">
+        <v>42</v>
+      </c>
+      <c r="AB5">
+        <v>48</v>
+      </c>
+      <c r="AC5">
+        <v>52</v>
+      </c>
+      <c r="AD5">
+        <v>44</v>
+      </c>
+      <c r="AE5">
+        <v>32</v>
+      </c>
+      <c r="AF5">
+        <v>36</v>
+      </c>
+      <c r="AG5">
+        <v>48</v>
+      </c>
+      <c r="AH5">
+        <v>36</v>
+      </c>
+      <c r="AI5">
+        <v>52</v>
+      </c>
+      <c r="AJ5">
+        <v>48</v>
+      </c>
+      <c r="AK5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>42</v>
+      </c>
+      <c r="D6">
+        <v>38</v>
+      </c>
+      <c r="E6">
+        <v>32</v>
+      </c>
+      <c r="F6">
+        <v>34</v>
+      </c>
+      <c r="G6">
+        <v>38</v>
+      </c>
+      <c r="H6">
+        <v>34</v>
+      </c>
+      <c r="I6">
+        <v>38</v>
+      </c>
+      <c r="J6">
+        <v>32</v>
+      </c>
+      <c r="K6">
+        <v>38</v>
+      </c>
+      <c r="L6">
+        <v>32</v>
+      </c>
+      <c r="M6">
+        <v>38</v>
+      </c>
+      <c r="N6">
+        <v>32</v>
+      </c>
+      <c r="O6">
+        <v>36</v>
+      </c>
+      <c r="P6">
+        <v>36</v>
+      </c>
+      <c r="Q6">
+        <v>46</v>
+      </c>
+      <c r="R6">
+        <v>46</v>
+      </c>
+      <c r="S6">
+        <v>26</v>
+      </c>
+      <c r="T6">
+        <v>8</v>
+      </c>
+      <c r="U6">
+        <v>22</v>
+      </c>
+      <c r="V6">
+        <v>10</v>
+      </c>
+      <c r="W6">
+        <v>42</v>
+      </c>
+      <c r="X6">
+        <v>38</v>
+      </c>
+      <c r="Y6">
+        <v>34</v>
+      </c>
+      <c r="Z6">
+        <v>38</v>
+      </c>
+      <c r="AA6">
+        <v>32</v>
+      </c>
+      <c r="AB6">
+        <v>42</v>
+      </c>
+      <c r="AC6">
+        <v>44</v>
+      </c>
+      <c r="AD6">
+        <v>40</v>
+      </c>
+      <c r="AE6">
+        <v>26</v>
+      </c>
+      <c r="AF6">
+        <v>24</v>
+      </c>
+      <c r="AG6">
+        <v>38</v>
+      </c>
+      <c r="AH6">
+        <v>30</v>
+      </c>
+      <c r="AI6">
+        <v>44</v>
+      </c>
+      <c r="AJ6">
+        <v>32</v>
+      </c>
+      <c r="AK6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>22</v>
+      </c>
+      <c r="H7">
+        <v>14</v>
+      </c>
+      <c r="I7">
+        <v>22</v>
+      </c>
+      <c r="J7">
+        <v>26</v>
+      </c>
+      <c r="K7">
+        <v>26</v>
+      </c>
+      <c r="L7">
+        <v>26</v>
+      </c>
+      <c r="M7">
+        <v>26</v>
+      </c>
+      <c r="N7">
+        <v>22</v>
+      </c>
+      <c r="O7">
+        <v>30</v>
+      </c>
+      <c r="P7">
+        <v>30</v>
+      </c>
+      <c r="Q7">
+        <v>28</v>
+      </c>
+      <c r="R7">
+        <v>32</v>
+      </c>
+      <c r="S7">
+        <v>18</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>22</v>
+      </c>
+      <c r="X7">
+        <v>22</v>
+      </c>
+      <c r="Y7">
+        <v>26</v>
+      </c>
+      <c r="Z7">
+        <v>24</v>
+      </c>
+      <c r="AA7">
+        <v>22</v>
+      </c>
+      <c r="AB7">
+        <v>26</v>
+      </c>
+      <c r="AC7">
+        <v>28</v>
+      </c>
+      <c r="AD7">
+        <v>22</v>
+      </c>
+      <c r="AE7">
+        <v>20</v>
+      </c>
+      <c r="AF7">
+        <v>12</v>
+      </c>
+      <c r="AG7">
+        <v>20</v>
+      </c>
+      <c r="AH7">
+        <v>20</v>
+      </c>
+      <c r="AI7">
+        <v>28</v>
+      </c>
+      <c r="AJ7">
+        <v>28</v>
+      </c>
+      <c r="AK7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8">
+        <v>3708942</v>
+      </c>
+      <c r="C8">
+        <v>3989564</v>
+      </c>
+      <c r="D8">
+        <v>3668166</v>
+      </c>
+      <c r="E8">
+        <v>4228620</v>
+      </c>
+      <c r="F8">
+        <v>3590388</v>
+      </c>
+      <c r="G8">
+        <v>3808730</v>
+      </c>
+      <c r="H8">
+        <v>3680034</v>
+      </c>
+      <c r="I8">
+        <v>3688230</v>
+      </c>
+      <c r="J8">
+        <v>3880848</v>
+      </c>
+      <c r="K8">
+        <v>3781142</v>
+      </c>
+      <c r="L8">
+        <v>3689078</v>
+      </c>
+      <c r="M8">
+        <v>3797806</v>
+      </c>
+      <c r="N8">
+        <v>3623138</v>
+      </c>
+      <c r="O8">
+        <v>3673006</v>
+      </c>
+      <c r="P8">
+        <v>3906844</v>
+      </c>
+      <c r="Q8">
+        <v>3892916</v>
+      </c>
+      <c r="R8">
+        <v>3992596</v>
+      </c>
+      <c r="S8">
+        <v>3604096</v>
+      </c>
+      <c r="T8">
+        <v>5196526</v>
+      </c>
+      <c r="U8">
+        <v>4903606</v>
+      </c>
+      <c r="V8">
+        <v>5043840</v>
+      </c>
+      <c r="W8">
+        <v>3731486</v>
+      </c>
+      <c r="X8">
+        <v>3866660</v>
+      </c>
+      <c r="Y8">
+        <v>3668982</v>
+      </c>
+      <c r="Z8">
+        <v>3846298</v>
+      </c>
+      <c r="AA8">
+        <v>3756136</v>
+      </c>
+      <c r="AB8">
+        <v>3686846</v>
+      </c>
+      <c r="AC8">
+        <v>3748184</v>
+      </c>
+      <c r="AD8">
+        <v>3763614</v>
+      </c>
+      <c r="AE8">
+        <v>3585952</v>
+      </c>
+      <c r="AF8">
+        <v>3595930</v>
+      </c>
+      <c r="AG8">
+        <v>3752622</v>
+      </c>
+      <c r="AH8">
+        <v>3601776</v>
+      </c>
+      <c r="AI8">
+        <v>3870104</v>
+      </c>
+      <c r="AJ8">
+        <v>7359938</v>
+      </c>
+      <c r="AK8">
+        <v>3784964</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9">
+        <v>3647922</v>
+      </c>
+      <c r="C9">
+        <v>3921626</v>
+      </c>
+      <c r="D9">
+        <v>3620870</v>
+      </c>
+      <c r="E9">
+        <v>3865786</v>
+      </c>
+      <c r="F9">
+        <v>3546828</v>
+      </c>
+      <c r="G9">
+        <v>3763426</v>
+      </c>
+      <c r="H9">
+        <v>3648094</v>
+      </c>
+      <c r="I9">
+        <v>3648916</v>
+      </c>
+      <c r="J9">
+        <v>3805722</v>
+      </c>
+      <c r="K9">
+        <v>3719222</v>
+      </c>
+      <c r="L9">
+        <v>3636048</v>
+      </c>
+      <c r="M9">
+        <v>3747740</v>
+      </c>
+      <c r="N9">
+        <v>3579724</v>
+      </c>
+      <c r="O9">
+        <v>3633380</v>
+      </c>
+      <c r="P9">
+        <v>3863764</v>
+      </c>
+      <c r="Q9">
+        <v>3847394</v>
+      </c>
+      <c r="R9">
+        <v>3927498</v>
+      </c>
+      <c r="S9">
+        <v>3545758</v>
+      </c>
+      <c r="T9">
+        <v>4343986</v>
+      </c>
+      <c r="U9">
+        <v>4251278</v>
+      </c>
+      <c r="V9">
+        <v>4263730</v>
+      </c>
+      <c r="W9">
+        <v>3669478</v>
+      </c>
+      <c r="X9">
+        <v>3812144</v>
+      </c>
+      <c r="Y9">
+        <v>3632448</v>
+      </c>
+      <c r="Z9">
+        <v>3783200</v>
+      </c>
+      <c r="AA9">
+        <v>3715514</v>
+      </c>
+      <c r="AB9">
+        <v>3633220</v>
+      </c>
+      <c r="AC9">
+        <v>3669328</v>
+      </c>
+      <c r="AD9">
+        <v>3711364</v>
+      </c>
+      <c r="AE9">
+        <v>3542714</v>
+      </c>
+      <c r="AF9">
+        <v>3555740</v>
+      </c>
+      <c r="AG9">
+        <v>3689996</v>
+      </c>
+      <c r="AH9">
+        <v>3554484</v>
+      </c>
+      <c r="AI9">
+        <v>3834006</v>
+      </c>
+      <c r="AJ9">
+        <v>6793380</v>
+      </c>
+      <c r="AK9">
+        <v>3750042</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10">
+        <v>3624462</v>
+      </c>
+      <c r="C10">
+        <v>3856598</v>
+      </c>
+      <c r="D10">
+        <v>3601100</v>
+      </c>
+      <c r="E10">
+        <v>3472426</v>
+      </c>
+      <c r="F10">
+        <v>3530414</v>
+      </c>
+      <c r="G10">
+        <v>3748042</v>
+      </c>
+      <c r="H10">
+        <v>3584012</v>
+      </c>
+      <c r="I10">
+        <v>3586072</v>
+      </c>
+      <c r="J10">
+        <v>3800392</v>
+      </c>
+      <c r="K10">
+        <v>3673704</v>
+      </c>
+      <c r="L10">
+        <v>3599346</v>
+      </c>
+      <c r="M10">
+        <v>3718282</v>
+      </c>
+      <c r="N10">
+        <v>3542568</v>
+      </c>
+      <c r="O10">
+        <v>3587586</v>
+      </c>
+      <c r="P10">
+        <v>3838518</v>
+      </c>
+      <c r="Q10">
+        <v>3817922</v>
+      </c>
+      <c r="R10">
+        <v>3900838</v>
+      </c>
+      <c r="S10">
+        <v>3510240</v>
+      </c>
+      <c r="T10">
+        <v>2520264</v>
+      </c>
+      <c r="U10">
+        <v>3177904</v>
+      </c>
+      <c r="V10">
+        <v>2738060</v>
+      </c>
+      <c r="W10">
+        <v>3649282</v>
+      </c>
+      <c r="X10">
+        <v>3790600</v>
+      </c>
+      <c r="Y10">
+        <v>3592202</v>
+      </c>
+      <c r="Z10">
+        <v>3754096</v>
+      </c>
+      <c r="AA10">
+        <v>3699740</v>
+      </c>
+      <c r="AB10">
+        <v>3601966</v>
+      </c>
+      <c r="AC10">
+        <v>3660758</v>
+      </c>
+      <c r="AD10">
+        <v>3691684</v>
+      </c>
+      <c r="AE10">
+        <v>3507852</v>
+      </c>
+      <c r="AF10">
+        <v>3538484</v>
+      </c>
+      <c r="AG10">
+        <v>3635186</v>
+      </c>
+      <c r="AH10">
+        <v>3517852</v>
+      </c>
+      <c r="AI10">
+        <v>3804748</v>
+      </c>
+      <c r="AJ10">
+        <v>4207910</v>
+      </c>
+      <c r="AK10">
+        <v>3735918</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11">
+        <v>3596438</v>
+      </c>
+      <c r="C11">
+        <v>3731668</v>
+      </c>
+      <c r="D11">
+        <v>3550626</v>
+      </c>
+      <c r="E11">
+        <v>3152740</v>
+      </c>
+      <c r="F11">
+        <v>3507560</v>
+      </c>
+      <c r="G11">
+        <v>3748042</v>
+      </c>
+      <c r="H11">
+        <v>3556500</v>
+      </c>
+      <c r="I11">
+        <v>3531104</v>
+      </c>
+      <c r="J11">
+        <v>3745456</v>
+      </c>
+      <c r="K11">
+        <v>3631062</v>
+      </c>
+      <c r="L11">
+        <v>3599346</v>
+      </c>
+      <c r="M11">
+        <v>3647296</v>
+      </c>
+      <c r="N11">
+        <v>3505960</v>
+      </c>
+      <c r="O11">
+        <v>3552378</v>
+      </c>
+      <c r="P11">
+        <v>3736678</v>
+      </c>
+      <c r="Q11">
+        <v>3771520</v>
+      </c>
+      <c r="R11">
+        <v>3831006</v>
+      </c>
+      <c r="S11">
+        <v>3510240</v>
+      </c>
+      <c r="T11">
+        <v>1546214</v>
+      </c>
+      <c r="U11">
+        <v>2268760</v>
+      </c>
+      <c r="V11">
+        <v>1670560</v>
+      </c>
+      <c r="W11">
+        <v>3649282</v>
+      </c>
+      <c r="X11">
+        <v>3772784</v>
+      </c>
+      <c r="Y11">
+        <v>3592202</v>
+      </c>
+      <c r="Z11">
+        <v>3696788</v>
+      </c>
+      <c r="AA11">
+        <v>3646910</v>
+      </c>
+      <c r="AB11">
+        <v>3591792</v>
+      </c>
+      <c r="AC11">
+        <v>3618602</v>
+      </c>
+      <c r="AD11">
+        <v>3666882</v>
+      </c>
+      <c r="AE11">
+        <v>3507852</v>
+      </c>
+      <c r="AF11">
+        <v>3490232</v>
+      </c>
+      <c r="AG11">
+        <v>3635186</v>
+      </c>
+      <c r="AH11">
+        <v>3506558</v>
+      </c>
+      <c r="AI11">
+        <v>3804748</v>
+      </c>
+      <c r="AJ11">
+        <v>3623124</v>
+      </c>
+      <c r="AK11">
+        <v>3674108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12">
+        <v>3568734</v>
+      </c>
+      <c r="C12">
+        <v>3458760</v>
+      </c>
+      <c r="D12">
+        <v>3387522</v>
+      </c>
+      <c r="E12">
+        <v>1663016</v>
+      </c>
+      <c r="F12">
+        <v>3400716</v>
+      </c>
+      <c r="G12">
+        <v>3638702</v>
+      </c>
+      <c r="H12">
+        <v>3391874</v>
+      </c>
+      <c r="I12">
+        <v>3348736</v>
+      </c>
+      <c r="J12">
+        <v>3663636</v>
+      </c>
+      <c r="K12">
+        <v>3511128</v>
+      </c>
+      <c r="L12">
+        <v>3418306</v>
+      </c>
+      <c r="M12">
+        <v>3394978</v>
+      </c>
+      <c r="N12">
+        <v>3340982</v>
+      </c>
+      <c r="O12">
+        <v>3400314</v>
+      </c>
+      <c r="P12">
+        <v>3691392</v>
+      </c>
+      <c r="Q12">
+        <v>3612406</v>
+      </c>
+      <c r="R12">
+        <v>3691626</v>
+      </c>
+      <c r="S12">
+        <v>3308824</v>
+      </c>
+      <c r="T12">
+        <v>265916</v>
+      </c>
+      <c r="U12">
+        <v>825010</v>
+      </c>
+      <c r="V12">
+        <v>415886</v>
+      </c>
+      <c r="W12">
+        <v>3379994</v>
+      </c>
+      <c r="X12">
+        <v>3531130</v>
+      </c>
+      <c r="Y12">
+        <v>3571780</v>
+      </c>
+      <c r="Z12">
+        <v>3567524</v>
+      </c>
+      <c r="AA12">
+        <v>3481152</v>
+      </c>
+      <c r="AB12">
+        <v>3472918</v>
+      </c>
+      <c r="AC12">
+        <v>3480698</v>
+      </c>
+      <c r="AD12">
+        <v>3601906</v>
+      </c>
+      <c r="AE12">
+        <v>3396292</v>
+      </c>
+      <c r="AF12">
+        <v>3269970</v>
+      </c>
+      <c r="AG12">
+        <v>3462810</v>
+      </c>
+      <c r="AH12">
+        <v>3388720</v>
+      </c>
+      <c r="AI12">
+        <v>3677538</v>
+      </c>
+      <c r="AJ12">
+        <v>3417704</v>
+      </c>
+      <c r="AK12">
+        <v>3614568</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13">
+        <v>3198082</v>
+      </c>
+      <c r="C13">
+        <v>2959586</v>
+      </c>
+      <c r="D13">
+        <v>2876190</v>
+      </c>
+      <c r="E13">
+        <v>1012358</v>
+      </c>
+      <c r="F13">
+        <v>2912660</v>
+      </c>
+      <c r="G13">
+        <v>3073718</v>
+      </c>
+      <c r="H13">
+        <v>2693320</v>
+      </c>
+      <c r="I13">
+        <v>2834950</v>
+      </c>
+      <c r="J13">
+        <v>3439040</v>
+      </c>
+      <c r="K13">
+        <v>3070758</v>
+      </c>
+      <c r="L13">
+        <v>3194784</v>
+      </c>
+      <c r="M13">
+        <v>3004164</v>
+      </c>
+      <c r="N13">
+        <v>2975784</v>
+      </c>
+      <c r="O13">
+        <v>3217086</v>
+      </c>
+      <c r="P13">
+        <v>3445504</v>
+      </c>
+      <c r="Q13">
+        <v>2952420</v>
+      </c>
+      <c r="R13">
+        <v>3165312</v>
+      </c>
+      <c r="S13">
+        <v>2985840</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>151330</v>
+      </c>
+      <c r="V13">
+        <v>124222</v>
+      </c>
+      <c r="W13">
+        <v>2649074</v>
+      </c>
+      <c r="X13">
+        <v>2936056</v>
+      </c>
+      <c r="Y13">
+        <v>3309840</v>
+      </c>
+      <c r="Z13">
+        <v>3121348</v>
+      </c>
+      <c r="AA13">
+        <v>3110944</v>
+      </c>
+      <c r="AB13">
+        <v>2940334</v>
+      </c>
+      <c r="AC13">
+        <v>2934698</v>
+      </c>
+      <c r="AD13">
+        <v>2975354</v>
+      </c>
+      <c r="AE13">
+        <v>3221668</v>
+      </c>
+      <c r="AF13">
+        <v>2919388</v>
+      </c>
+      <c r="AG13">
+        <v>2797564</v>
+      </c>
+      <c r="AH13">
+        <v>3046352</v>
+      </c>
+      <c r="AI13">
+        <v>3139640</v>
+      </c>
+      <c r="AJ13">
+        <v>3310580</v>
+      </c>
+      <c r="AK13">
+        <v>3286370</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14">
+        <v>70</v>
+      </c>
+      <c r="C14">
+        <v>120</v>
+      </c>
+      <c r="D14">
+        <v>108</v>
+      </c>
+      <c r="E14">
+        <v>720</v>
+      </c>
+      <c r="F14">
+        <v>78</v>
+      </c>
+      <c r="G14">
+        <v>68</v>
+      </c>
+      <c r="H14">
+        <v>84</v>
+      </c>
+      <c r="I14">
+        <v>100</v>
+      </c>
+      <c r="J14">
+        <v>70</v>
+      </c>
+      <c r="K14">
+        <v>92</v>
+      </c>
+      <c r="L14">
+        <v>72</v>
+      </c>
+      <c r="M14">
+        <v>90</v>
+      </c>
+      <c r="N14">
+        <v>74</v>
+      </c>
+      <c r="O14">
+        <v>92</v>
+      </c>
+      <c r="P14">
+        <v>88</v>
+      </c>
+      <c r="Q14">
+        <v>94</v>
+      </c>
+      <c r="R14">
+        <v>98</v>
+      </c>
+      <c r="S14">
+        <v>88</v>
+      </c>
+      <c r="T14">
+        <v>1912</v>
+      </c>
+      <c r="U14">
+        <v>1450</v>
+      </c>
+      <c r="V14">
+        <v>1752</v>
+      </c>
+      <c r="W14">
+        <v>92</v>
+      </c>
+      <c r="X14">
+        <v>76</v>
+      </c>
+      <c r="Y14">
+        <v>72</v>
+      </c>
+      <c r="Z14">
+        <v>90</v>
+      </c>
+      <c r="AA14">
+        <v>70</v>
+      </c>
+      <c r="AB14">
+        <v>78</v>
+      </c>
+      <c r="AC14">
+        <v>88</v>
+      </c>
+      <c r="AD14">
+        <v>72</v>
+      </c>
+      <c r="AE14">
+        <v>64</v>
+      </c>
+      <c r="AF14">
+        <v>60</v>
+      </c>
+      <c r="AG14">
+        <v>106</v>
+      </c>
+      <c r="AH14">
+        <v>80</v>
+      </c>
+      <c r="AI14">
+        <v>86</v>
+      </c>
+      <c r="AJ14">
+        <v>1648</v>
+      </c>
+      <c r="AK14">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15">
+        <v>544903</v>
+      </c>
+      <c r="C15">
+        <v>229088</v>
+      </c>
+      <c r="D15">
+        <v>397640</v>
+      </c>
+      <c r="E15">
+        <v>98085</v>
+      </c>
+      <c r="F15">
+        <v>311714</v>
+      </c>
+      <c r="G15">
+        <v>257341</v>
+      </c>
+      <c r="H15">
+        <v>562533</v>
+      </c>
+      <c r="I15">
+        <v>282546</v>
+      </c>
+      <c r="J15">
+        <v>341346</v>
+      </c>
+      <c r="K15">
+        <v>222496</v>
+      </c>
+      <c r="L15">
+        <v>270338</v>
+      </c>
+      <c r="M15">
+        <v>261027</v>
+      </c>
+      <c r="N15">
+        <v>202272</v>
+      </c>
+      <c r="O15">
+        <v>210454</v>
+      </c>
+      <c r="P15">
+        <v>300911</v>
+      </c>
+      <c r="Q15">
+        <v>214398</v>
+      </c>
+      <c r="R15">
+        <v>188270</v>
+      </c>
+      <c r="S15">
+        <v>290829</v>
+      </c>
+      <c r="T15">
+        <v>46131</v>
+      </c>
+      <c r="U15">
+        <v>75665</v>
+      </c>
+      <c r="V15">
+        <v>62111</v>
+      </c>
+      <c r="W15">
+        <v>238643</v>
+      </c>
+      <c r="X15">
+        <v>303029</v>
+      </c>
+      <c r="Y15">
+        <v>304475</v>
+      </c>
+      <c r="Z15">
+        <v>243031</v>
+      </c>
+      <c r="AA15">
+        <v>397647</v>
+      </c>
+      <c r="AB15">
+        <v>274029</v>
+      </c>
+      <c r="AC15">
+        <v>227421</v>
+      </c>
+      <c r="AD15">
+        <v>318413</v>
+      </c>
+      <c r="AE15">
+        <v>379801</v>
+      </c>
+      <c r="AF15">
+        <v>937097</v>
+      </c>
+      <c r="AG15">
+        <v>378297</v>
+      </c>
+      <c r="AH15">
+        <v>261921</v>
+      </c>
+      <c r="AI15">
+        <v>214104</v>
+      </c>
+      <c r="AJ15">
+        <v>208223</v>
+      </c>
+      <c r="AK15">
+        <v>348434</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16">
+        <v>3662420</v>
+      </c>
+      <c r="C16">
+        <v>3936764</v>
+      </c>
+      <c r="D16">
+        <v>3647586</v>
+      </c>
+      <c r="E16">
+        <v>4102072</v>
+      </c>
+      <c r="F16">
+        <v>3563794</v>
+      </c>
+      <c r="G16">
+        <v>3772028</v>
+      </c>
+      <c r="H16">
+        <v>3655756</v>
+      </c>
+      <c r="I16">
+        <v>3661202</v>
+      </c>
+      <c r="J16">
+        <v>3820102</v>
+      </c>
+      <c r="K16">
+        <v>3733120</v>
+      </c>
+      <c r="L16">
+        <v>3644268</v>
+      </c>
+      <c r="M16">
+        <v>3761312</v>
+      </c>
+      <c r="N16">
+        <v>3585996</v>
+      </c>
+      <c r="O16">
+        <v>3648622</v>
+      </c>
+      <c r="P16">
+        <v>3876896</v>
+      </c>
+      <c r="Q16">
+        <v>3857966</v>
+      </c>
+      <c r="R16">
+        <v>3939230</v>
+      </c>
+      <c r="S16">
+        <v>3570546</v>
+      </c>
+      <c r="T16">
+        <v>4892872</v>
+      </c>
+      <c r="U16">
+        <v>4698986</v>
+      </c>
+      <c r="V16">
+        <v>4800456</v>
+      </c>
+      <c r="W16">
+        <v>3683650</v>
+      </c>
+      <c r="X16">
+        <v>3820938</v>
+      </c>
+      <c r="Y16">
+        <v>3646970</v>
+      </c>
+      <c r="Z16">
+        <v>3801914</v>
+      </c>
+      <c r="AA16">
+        <v>3722346</v>
+      </c>
+      <c r="AB16">
+        <v>3641094</v>
+      </c>
+      <c r="AC16">
+        <v>3688538</v>
+      </c>
+      <c r="AD16">
+        <v>3721664</v>
+      </c>
+      <c r="AE16">
+        <v>3553946</v>
+      </c>
+      <c r="AF16">
+        <v>3559834</v>
+      </c>
+      <c r="AG16">
+        <v>3709202</v>
+      </c>
+      <c r="AH16">
+        <v>3570458</v>
+      </c>
+      <c r="AI16">
+        <v>3849338</v>
+      </c>
+      <c r="AJ16">
+        <v>7017108</v>
+      </c>
+      <c r="AK16">
+        <v>3758150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:145" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17">
+        <v>37.92</v>
+      </c>
+      <c r="C17">
+        <v>38.28</v>
+      </c>
+      <c r="D17">
+        <v>37.909999999999997</v>
+      </c>
+      <c r="E17">
+        <v>37.979999999999997</v>
+      </c>
+      <c r="F17">
+        <v>37.93</v>
+      </c>
+      <c r="G17">
+        <v>38.049999999999997</v>
+      </c>
+      <c r="H17">
+        <v>37.93</v>
+      </c>
+      <c r="I17">
+        <v>37.93</v>
+      </c>
+      <c r="J17">
+        <v>37.950000000000003</v>
+      </c>
+      <c r="K17">
+        <v>38.01</v>
+      </c>
+      <c r="L17">
+        <v>37.94</v>
+      </c>
+      <c r="M17">
+        <v>38.03</v>
+      </c>
+      <c r="N17">
+        <v>37.89</v>
+      </c>
+      <c r="O17">
+        <v>38.01</v>
+      </c>
+      <c r="P17">
+        <v>37.92</v>
+      </c>
+      <c r="Q17">
+        <v>38.119999999999997</v>
+      </c>
+      <c r="R17">
+        <v>38.25</v>
+      </c>
+      <c r="S17">
+        <v>37.979999999999997</v>
+      </c>
+      <c r="T17">
+        <v>37.89</v>
+      </c>
+      <c r="U17">
+        <v>37.96</v>
+      </c>
+      <c r="V17">
+        <v>37.659999999999997</v>
+      </c>
+      <c r="W17">
+        <v>37.950000000000003</v>
+      </c>
+      <c r="X17">
+        <v>38.07</v>
+      </c>
+      <c r="Y17">
+        <v>38.01</v>
+      </c>
+      <c r="Z17">
+        <v>37.979999999999997</v>
+      </c>
+      <c r="AA17">
+        <v>38.020000000000003</v>
+      </c>
+      <c r="AB17">
+        <v>37.94</v>
+      </c>
+      <c r="AC17">
+        <v>37.96</v>
+      </c>
+      <c r="AD17">
+        <v>38.090000000000003</v>
+      </c>
+      <c r="AE17">
+        <v>37.93</v>
+      </c>
+      <c r="AF17">
+        <v>37.85</v>
+      </c>
+      <c r="AG17">
+        <v>38.020000000000003</v>
+      </c>
+      <c r="AH17">
+        <v>37.97</v>
+      </c>
+      <c r="AI17">
+        <v>38</v>
+      </c>
+      <c r="AJ17">
+        <v>44.84</v>
+      </c>
+      <c r="AK17">
+        <v>37.89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:145" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18">
+        <v>179908</v>
+      </c>
+      <c r="C18">
+        <v>94977</v>
+      </c>
+      <c r="D18">
+        <v>108771</v>
+      </c>
+      <c r="E18">
+        <v>22667</v>
+      </c>
+      <c r="F18">
+        <v>141422</v>
+      </c>
+      <c r="G18">
+        <v>138174</v>
+      </c>
+      <c r="H18">
+        <v>178793</v>
+      </c>
+      <c r="I18">
+        <v>110381</v>
+      </c>
+      <c r="J18">
+        <v>122835</v>
+      </c>
+      <c r="K18">
+        <v>113996</v>
+      </c>
+      <c r="L18">
+        <v>127258</v>
+      </c>
+      <c r="M18">
+        <v>113077</v>
+      </c>
+      <c r="N18">
+        <v>131622</v>
+      </c>
+      <c r="O18">
+        <v>117071</v>
+      </c>
+      <c r="P18">
+        <v>104816</v>
+      </c>
+      <c r="Q18">
+        <v>80147</v>
+      </c>
+      <c r="R18">
+        <v>80947</v>
+      </c>
+      <c r="S18">
+        <v>208235</v>
+      </c>
+      <c r="T18">
+        <v>5442</v>
+      </c>
+      <c r="U18">
+        <v>9627</v>
+      </c>
+      <c r="V18">
+        <v>6318</v>
+      </c>
+      <c r="W18">
+        <v>111015</v>
+      </c>
+      <c r="X18">
+        <v>158471</v>
+      </c>
+      <c r="Y18">
+        <v>138129</v>
+      </c>
+      <c r="Z18">
+        <v>136764</v>
+      </c>
+      <c r="AA18">
+        <v>120993</v>
+      </c>
+      <c r="AB18">
+        <v>109035</v>
+      </c>
+      <c r="AC18">
+        <v>94725</v>
+      </c>
+      <c r="AD18">
+        <v>141257</v>
+      </c>
+      <c r="AE18">
+        <v>146736</v>
+      </c>
+      <c r="AF18">
+        <v>937097</v>
+      </c>
+      <c r="AG18">
+        <v>142720</v>
+      </c>
+      <c r="AH18">
+        <v>175962</v>
+      </c>
+      <c r="AI18">
+        <v>103116</v>
+      </c>
+      <c r="AJ18">
+        <v>12485</v>
+      </c>
+      <c r="AK18">
+        <v>172580</v>
+      </c>
+    </row>
+    <row r="19" spans="1:145" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19">
+        <v>79656</v>
+      </c>
+      <c r="C19">
+        <v>60534</v>
+      </c>
+      <c r="D19">
+        <v>55150</v>
+      </c>
+      <c r="E19">
+        <v>10391</v>
+      </c>
+      <c r="F19">
+        <v>66695</v>
+      </c>
+      <c r="G19">
+        <v>67583</v>
+      </c>
+      <c r="H19">
+        <v>42341</v>
+      </c>
+      <c r="I19">
+        <v>50930</v>
+      </c>
+      <c r="J19">
+        <v>101055</v>
+      </c>
+      <c r="K19">
+        <v>72511</v>
+      </c>
+      <c r="L19">
+        <v>96062</v>
+      </c>
+      <c r="M19">
+        <v>61657</v>
+      </c>
+      <c r="N19">
+        <v>110660</v>
+      </c>
+      <c r="O19">
+        <v>61642</v>
+      </c>
+      <c r="P19">
+        <v>61816</v>
+      </c>
+      <c r="Q19">
+        <v>52198</v>
+      </c>
+      <c r="R19">
+        <v>53970</v>
+      </c>
+      <c r="S19">
+        <v>96564</v>
+      </c>
+      <c r="T19">
+        <v>1768</v>
+      </c>
+      <c r="U19">
+        <v>2644</v>
+      </c>
+      <c r="V19">
+        <v>2036</v>
+      </c>
+      <c r="W19">
+        <v>43261</v>
+      </c>
+      <c r="X19">
+        <v>55013</v>
+      </c>
+      <c r="Y19">
+        <v>79029</v>
+      </c>
+      <c r="Z19">
+        <v>66318</v>
+      </c>
+      <c r="AA19">
+        <v>76328</v>
+      </c>
+      <c r="AB19">
+        <v>59945</v>
+      </c>
+      <c r="AC19">
+        <v>53346</v>
+      </c>
+      <c r="AD19">
+        <v>60642</v>
+      </c>
+      <c r="AE19">
+        <v>111705</v>
+      </c>
+      <c r="AF19">
+        <v>80505</v>
+      </c>
+      <c r="AG19">
+        <v>55506</v>
+      </c>
+      <c r="AH19">
+        <v>67577</v>
+      </c>
+      <c r="AI19">
+        <v>67950</v>
+      </c>
+      <c r="AJ19">
+        <v>2716</v>
+      </c>
+      <c r="AK19">
+        <v>71067</v>
+      </c>
+    </row>
+    <row r="20" spans="1:145" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>49</v>
+      </c>
+      <c r="F20">
+        <v>8</v>
+      </c>
+      <c r="G20">
+        <v>9</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+      <c r="I20">
+        <v>10</v>
+      </c>
+      <c r="J20">
+        <v>10</v>
+      </c>
+      <c r="K20">
+        <v>11</v>
+      </c>
+      <c r="L20">
+        <v>11</v>
+      </c>
+      <c r="M20">
+        <v>13</v>
+      </c>
+      <c r="N20">
+        <v>11</v>
+      </c>
+      <c r="O20">
+        <v>12</v>
+      </c>
+      <c r="P20">
+        <v>11</v>
+      </c>
+      <c r="Q20">
+        <v>12</v>
+      </c>
+      <c r="R20">
+        <v>13</v>
+      </c>
+      <c r="S20">
+        <v>8</v>
+      </c>
+      <c r="T20">
+        <v>218</v>
+      </c>
+      <c r="U20">
+        <v>121</v>
+      </c>
+      <c r="V20">
+        <v>193</v>
+      </c>
+      <c r="W20">
+        <v>12</v>
+      </c>
+      <c r="X20">
+        <v>9</v>
+      </c>
+      <c r="Y20">
+        <v>9</v>
+      </c>
+      <c r="Z20">
+        <v>10</v>
+      </c>
+      <c r="AA20">
+        <v>9</v>
+      </c>
+      <c r="AB20">
+        <v>12</v>
+      </c>
+      <c r="AC20">
+        <v>12</v>
+      </c>
+      <c r="AD20">
+        <v>9</v>
+      </c>
+      <c r="AE20">
+        <v>7</v>
+      </c>
+      <c r="AF20">
+        <v>2</v>
+      </c>
+      <c r="AG20">
+        <v>9</v>
+      </c>
+      <c r="AH20">
+        <v>8</v>
+      </c>
+      <c r="AI20">
+        <v>13</v>
+      </c>
+      <c r="AJ20">
+        <v>38</v>
+      </c>
+      <c r="AK20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:145" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <v>28</v>
+      </c>
+      <c r="D21">
+        <v>22</v>
+      </c>
+      <c r="E21">
+        <v>115</v>
+      </c>
+      <c r="F21">
+        <v>17</v>
+      </c>
+      <c r="G21">
+        <v>19</v>
+      </c>
+      <c r="H21">
+        <v>16</v>
+      </c>
+      <c r="I21">
+        <v>21</v>
+      </c>
+      <c r="J21">
+        <v>18</v>
+      </c>
+      <c r="K21">
+        <v>22</v>
+      </c>
+      <c r="L21">
+        <v>20</v>
+      </c>
+      <c r="M21">
+        <v>23</v>
+      </c>
+      <c r="N21">
+        <v>18</v>
+      </c>
+      <c r="O21">
+        <v>22</v>
+      </c>
+      <c r="P21">
+        <v>21</v>
+      </c>
+      <c r="Q21">
+        <v>27</v>
+      </c>
+      <c r="R21">
+        <v>28</v>
+      </c>
+      <c r="S21">
+        <v>15</v>
+      </c>
+      <c r="T21">
+        <v>629</v>
+      </c>
+      <c r="U21">
+        <v>336</v>
+      </c>
+      <c r="V21">
+        <v>527</v>
+      </c>
+      <c r="W21">
+        <v>25</v>
+      </c>
+      <c r="X21">
+        <v>21</v>
+      </c>
+      <c r="Y21">
+        <v>17</v>
+      </c>
+      <c r="Z21">
+        <v>20</v>
+      </c>
+      <c r="AA21">
+        <v>18</v>
+      </c>
+      <c r="AB21">
+        <v>23</v>
+      </c>
+      <c r="AC21">
+        <v>25</v>
+      </c>
+      <c r="AD21">
+        <v>19</v>
+      </c>
+      <c r="AE21">
+        <v>14</v>
+      </c>
+      <c r="AF21">
+        <v>9</v>
+      </c>
+      <c r="AG21">
+        <v>20</v>
+      </c>
+      <c r="AH21">
+        <v>15</v>
+      </c>
+      <c r="AI21">
+        <v>24</v>
+      </c>
+      <c r="AJ21">
+        <v>433</v>
+      </c>
+      <c r="AK21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:145" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:145" x14ac:dyDescent="0.2">
+      <c r="B23" s="1">
+        <f>((LOG((B18/B14),10)/((B16/1890027)^2)))</f>
+        <v>0.90813004421148302</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="B23:BM23" si="0">((LOG((C18/C14),10)/((C16/1890027)^2)))</f>
+        <v>0.66806873969124136</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0.80629356268813113</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>0.31802342884898133</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0.91646991083079177</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>0.83050233863439293</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>0.8895579104209681</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>0.81091531936537575</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>0.79413976555053123</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>0.79284141417307086</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>0.87346367465120922</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>0.78252341125228253</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>0.90284398003533028</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="0"/>
+        <v>0.8330911635162459</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>0.73104863030405431</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="0"/>
+        <v>0.70339518970612758</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="0"/>
+        <v>0.67149997203518363</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="0"/>
+        <v>0.94541170690782073</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="0"/>
+        <v>6.7783343235954877E-2</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="0"/>
+        <v>0.13300393706108557</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="0"/>
+        <v>8.6349875449418259E-2</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="0"/>
+        <v>0.81124997222574147</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="0"/>
+        <v>0.81212169054525307</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="0"/>
+        <v>0.88173121738679838</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="0"/>
+        <v>0.78631156682779602</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="0"/>
+        <v>0.83470703478017194</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="0"/>
+        <v>0.84753563055405723</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="0"/>
+        <v>0.79607521539314996</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="0"/>
+        <v>0.84920176333733555</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="0"/>
+        <v>0.95038538152261531</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="0"/>
+        <v>1.182134725898623</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="0"/>
+        <v>0.81246647422959506</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="0"/>
+        <v>0.93656374872269588</v>
+      </c>
+      <c r="AI23">
+        <f t="shared" si="0"/>
+        <v>0.7422484420871136</v>
+      </c>
+      <c r="AJ23">
+        <f t="shared" si="0"/>
+        <v>6.3800140207566733E-2</v>
+      </c>
+      <c r="AK23">
+        <f t="shared" si="0"/>
+        <v>0.86107064022968727</v>
+      </c>
+      <c r="AL23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BB23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BK23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BL23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BM23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BN23" t="e">
+        <f t="shared" ref="BN23:DY23" si="1">((LOG((BN18/BN14),10)/((BN16/1890027)^2)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BO23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BP23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BQ23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BR23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BS23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BT23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BU23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BV23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BW23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BX23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BY23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BZ23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CA23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CB23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CC23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CD23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CE23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CF23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CG23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CH23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CI23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CJ23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CK23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CL23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CM23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CN23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CO23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CP23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CQ23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CR23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CS23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CT23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CU23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CV23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CW23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CX23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CY23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CZ23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DA23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DB23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DC23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DD23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DE23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DF23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DG23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DH23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DI23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DJ23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DK23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DL23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DM23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DN23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DO23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DP23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DQ23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DR23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DS23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DT23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DU23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DV23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DW23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DX23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DY23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DZ23" t="e">
+        <f t="shared" ref="DZ23:EO23" si="2">((LOG((DZ18/DZ14),10)/((DZ16/1890027)^2)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EA23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EB23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EC23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="ED23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EE23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EF23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EG23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EH23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EI23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EJ23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EK23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EL23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EM23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EN23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EO23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:145" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AL24" s="1"/>
+      <c r="AP24" s="1"/>
+      <c r="AT24" s="1"/>
+      <c r="AX24" s="1"/>
+      <c r="BB24" s="1"/>
+      <c r="BF24" s="1"/>
+      <c r="BJ24" s="1"/>
+      <c r="BN24" s="1"/>
+      <c r="BR24" s="1"/>
+      <c r="BV24" s="1"/>
+      <c r="BZ24" s="1"/>
+      <c r="CD24" s="1"/>
+      <c r="CH24" s="1"/>
+      <c r="CL24" s="1"/>
+      <c r="CP24" s="1"/>
+      <c r="CT24" s="1"/>
+      <c r="CX24" s="1"/>
+      <c r="DB24" s="1"/>
+      <c r="DF24" s="1"/>
+      <c r="DJ24" s="1"/>
+      <c r="DN24" s="1"/>
+      <c r="DR24" s="1"/>
+      <c r="DV24" s="1"/>
+      <c r="DZ24" s="1"/>
+      <c r="ED24" s="1"/>
+      <c r="EH24" s="1"/>
+      <c r="EL24" s="1"/>
+    </row>
+    <row r="25" spans="1:145" x14ac:dyDescent="0.2">
+      <c r="B25" s="1">
+        <f>LOG((B18*B16)/(B14*B20))</f>
+        <v>9.1955693321872172</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25:BO25" si="3">LOG((C18*C16)/C14)</f>
+        <v>9.4935765821406957</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="3"/>
+        <v>9.5650949059557746</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>8.1110648270736583</v>
+      </c>
+      <c r="F25" s="1">
+        <f>LOG((F18*F16)/F14)</f>
+        <v>9.8103349644052322</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>9.8844923253329089</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>9.8910484269366705</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>9.6065180151826013</v>
+      </c>
+      <c r="J25" s="1">
+        <f>LOG((J18*J16)/J14)</f>
+        <v>9.8262990492566811</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="3"/>
+        <v>9.6651737357345997</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="3"/>
+        <v>9.8089629046600972</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="3"/>
+        <v>9.6744711279883298</v>
+      </c>
+      <c r="N25" s="1">
+        <f>LOG((N18*N16)/N14)</f>
+        <v>9.8047065666925945</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="3"/>
+        <v>9.6667903731503344</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="3"/>
+        <v>9.6644290608979819</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="3"/>
+        <v>9.5171178131384426</v>
+      </c>
+      <c r="R25" s="1">
+        <f>LOG((R18*R16)/R14)</f>
+        <v>9.5123860209036817</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="3"/>
+        <v>9.9268056876290434</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="3"/>
+        <v>7.143834504049452</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="3"/>
+        <v>7.4941271206827764</v>
+      </c>
+      <c r="V25" s="1">
+        <f>LOG((V18*V16)/V14)</f>
+        <v>7.2383280131288066</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="3"/>
+        <v>9.64787219515072</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="3"/>
+        <v>9.9013061969001441</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="3"/>
+        <v>9.8448845620887031</v>
+      </c>
+      <c r="Z25" s="1">
+        <f>LOG((Z18*Z16)/Z14)</f>
+        <v>9.7617315737014643</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="3"/>
+        <v>9.808478944370691</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="3"/>
+        <v>9.7067032162283624</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="3"/>
+        <v>9.5988362037963046</v>
+      </c>
+      <c r="AD25" s="1">
+        <f>LOG((AD18*AD16)/AD14)</f>
+        <v>9.863414643590211</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="3"/>
+        <v>9.9110675268025492</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="3"/>
+        <v>10.745063043848303</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" si="3"/>
+        <v>9.6984594570496547</v>
+      </c>
+      <c r="AH25" s="1">
+        <f>LOG((AH18*AH16)/AH14)</f>
+        <v>9.8950528313206689</v>
+      </c>
+      <c r="AI25">
+        <f t="shared" si="3"/>
+        <v>9.6642136535939596</v>
+      </c>
+      <c r="AJ25">
+        <f t="shared" si="3"/>
+        <v>7.725589500113756</v>
+      </c>
+      <c r="AK25">
+        <f t="shared" si="3"/>
+        <v>9.9794556621638417</v>
+      </c>
+      <c r="AL25" s="1" t="e">
+        <f>LOG((AL18*AL16)/AL14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM25" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN25" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO25" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP25" s="1" t="e">
+        <f>LOG((AP18*AP16)/AP14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ25" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR25" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS25" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT25" s="1" t="e">
+        <f>LOG((AT18*AT16)/AT14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU25" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV25" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW25" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX25" s="1" t="e">
+        <f>LOG((AX18*AX16)/AX14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY25" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ25" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA25" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BB25" s="1" t="e">
+        <f>LOG((BB18*BB16)/BB14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC25" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD25" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE25" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF25" s="1" t="e">
+        <f>LOG((BF18*BF16)/BF14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG25" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH25" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI25" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ25" s="1" t="e">
+        <f>LOG((BJ18*BJ16)/BJ14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BK25" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BL25" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BM25" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BN25" s="1" t="e">
+        <f>LOG((BN18*BN16)/BN14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BO25" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BP25" t="e">
+        <f t="shared" ref="BP25:BQ25" si="4">LOG((BP18*BP16)/BP14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BQ25" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BR25" s="1" t="e">
+        <f>LOG((BR18*BR16)/BR14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BS25" t="e">
+        <f t="shared" ref="BS25:BU25" si="5">LOG((BS18*BS16)/BS14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BT25" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BU25" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BV25" s="1" t="e">
+        <f>LOG((BV18*BV16)/BV14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BW25" t="e">
+        <f t="shared" ref="BW25:BY25" si="6">LOG((BW18*BW16)/BW14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BX25" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BY25" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BZ25" s="1" t="e">
+        <f>LOG((BZ18*BZ16)/BZ14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CA25" t="e">
+        <f t="shared" ref="CA25:CC25" si="7">LOG((CA18*CA16)/CA14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CB25" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CC25" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CD25" s="1" t="e">
+        <f>LOG((CD18*CD16)/CD14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CE25" t="e">
+        <f t="shared" ref="CE25:CG25" si="8">LOG((CE18*CE16)/CE14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CF25" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CG25" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CH25" s="1" t="e">
+        <f>LOG((CH18*CH16)/CH14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CI25" t="e">
+        <f t="shared" ref="CI25:CK25" si="9">LOG((CI18*CI16)/CI14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CJ25" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CK25" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CL25" s="1" t="e">
+        <f>LOG((CL18*CL16)/CL14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CM25" t="e">
+        <f t="shared" ref="CM25:CO25" si="10">LOG((CM18*CM16)/CM14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CN25" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CO25" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CP25" s="1" t="e">
+        <f>LOG((CP18*CP16)/CP14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CQ25" t="e">
+        <f t="shared" ref="CQ25:CS25" si="11">LOG((CQ18*CQ16)/CQ14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CR25" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CS25" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CT25" s="1" t="e">
+        <f>LOG((CT18*CT16)/CT14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CU25" t="e">
+        <f t="shared" ref="CU25:CW25" si="12">LOG((CU18*CU16)/CU14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CV25" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CW25" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CX25" s="1" t="e">
+        <f>LOG((CX18*CX16)/CX14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CY25" t="e">
+        <f t="shared" ref="CY25:DA25" si="13">LOG((CY18*CY16)/CY14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CZ25" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DA25" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DB25" s="1" t="e">
+        <f>LOG((DB18*DB16)/DB14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DC25" t="e">
+        <f t="shared" ref="DC25:DE25" si="14">LOG((DC18*DC16)/DC14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DD25" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DE25" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DF25" s="1" t="e">
+        <f>LOG((DF18*DF16)/DF14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DG25" t="e">
+        <f t="shared" ref="DG25:DI25" si="15">LOG((DG18*DG16)/DG14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DH25" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DI25" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DJ25" s="1" t="e">
+        <f>LOG((DJ18*DJ16)/DJ14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DK25" t="e">
+        <f t="shared" ref="DK25:DM25" si="16">LOG((DK18*DK16)/DK14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DL25" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DM25" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DN25" s="1" t="e">
+        <f>LOG((DN18*DN16)/DN14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DO25" t="e">
+        <f t="shared" ref="DO25:DQ25" si="17">LOG((DO18*DO16)/DO14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DP25" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DQ25" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DR25" s="1" t="e">
+        <f>LOG((DR18*DR16)/DR14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DS25" t="e">
+        <f t="shared" ref="DS25:DU25" si="18">LOG((DS18*DS16)/DS14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DT25" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DU25" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DV25" s="1" t="e">
+        <f>LOG((DV18*DV16)/DV14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DW25" t="e">
+        <f t="shared" ref="DW25:DY25" si="19">LOG((DW18*DW16)/DW14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DX25" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DY25" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DZ25" s="1" t="e">
+        <f>LOG((DZ18*DZ16)/DZ14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EA25" t="e">
+        <f t="shared" ref="EA25:EC25" si="20">LOG((EA18*EA16)/EA14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EB25" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EC25" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="ED25" s="1" t="e">
+        <f>LOG((ED18*ED16)/ED14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EE25" t="e">
+        <f t="shared" ref="EE25:EG25" si="21">LOG((EE18*EE16)/EE14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EF25" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EG25" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EH25" s="1" t="e">
+        <f>LOG((EH18*EH16)/EH14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EI25" t="e">
+        <f t="shared" ref="EI25:EK25" si="22">LOG((EI18*EI16)/EI14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EJ25" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EK25" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EL25" s="1" t="e">
+        <f>LOG((EL18*EL16)/EL14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EM25" t="e">
+        <f t="shared" ref="EM25:EO25" si="23">LOG((EM18*EM16)/EM14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EN25" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EO25" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:145" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <f>AVERAGE(B8:AK8)</f>
+        <v>3971322.4444444445</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B23:E23">
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23:I23">
+    <cfRule type="colorScale" priority="107">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23:M23">
+    <cfRule type="colorScale" priority="106">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N23:Q23">
+    <cfRule type="colorScale" priority="105">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R23:U23">
+    <cfRule type="colorScale" priority="104">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V23:Y23">
+    <cfRule type="colorScale" priority="103">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z23:AC23">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD23:AG23">
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH23:AK23">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL23:AO23">
+    <cfRule type="colorScale" priority="99">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP23:AS23">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT23:AW23">
+    <cfRule type="colorScale" priority="97">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX23:BA23">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB23:BE23">
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BF23:BI23">
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ23:BM23">
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BN23:BQ23">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BR23:BU23">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BV23:BY23">
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BZ23:CC23">
+    <cfRule type="colorScale" priority="89">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD23:CG23">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CH23:CK23">
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CL23:CO23">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CP23:CS23">
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CT23:CW23">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CX23:DA23">
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DB23:DE23">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DF23:DI23">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DJ23:DM23">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DN23:DQ23">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DR23:DU23">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DV23:DY23">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DZ23:EC23">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="ED23:EG23">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="EH23:EK23">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="EL23:EO23">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:E24">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24:I24">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24:M24">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N24:Q24">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R24:U24">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V24:Y24">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z24:AC24">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD24:AG24">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH24:AK24">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL24:AO24">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP24:AS24">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT24:AW24">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX24:BA24">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB24:BE24">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BF24:BI24">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ24:BM24">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BN24:BQ24">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BR24:BU24">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BV24:BY24">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BZ24:CC24">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD24:CG24">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CH24:CK24">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CL24:CO24">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CP24:CS24">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CT24:CW24">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CX24:DA24">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DB24:DE24">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DF24:DI24">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DJ24:DM24">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DN24:DQ24">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DR24:DU24">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DV24:DY24">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DZ24:EC24">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="ED24:EG24">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="EH24:EK24">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="EL24:EO24">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:E25">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25:I25">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25:M25">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N25:Q25">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R25:U25">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V25:Y25">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z25:AC25">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD25:AG25">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH25:AK25">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL25:AO25">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP25:AS25">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT25:AW25">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX25:BA25">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB25:BE25">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BF25:BI25">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ25:BM25">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BN25:BQ25">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BR25:BU25">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BV25:BY25">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BZ25:CC25">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD25:CG25">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CH25:CK25">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CL25:CO25">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CP25:CS25">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CT25:CW25">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CX25:DA25">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DB25:DE25">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DF25:DI25">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DJ25:DM25">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DN25:DQ25">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DR25:DU25">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DV25:DY25">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DZ25:EC25">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="ED25:EG25">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="EH25:EK25">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="EL25:EO25">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
@@ -20639,7 +25529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA145"/>
   <sheetViews>
